--- a/assets/datasets/2.2.xlsx
+++ b/assets/datasets/2.2.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11109"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jacopopoletto/Google Drive/Sintesi C3—HATE SPEECH/Phase 02/z-SITO/Dataset/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nicola\Google Drive\Sintesi C3—HATE SPEECH\Phase 02\z-SITO\Dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0368E26-BFC8-3543-8890-4EB17ED9FAD3}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CCB384B-795F-4F4D-B445-F3D9BE221F87}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="960" windowWidth="27640" windowHeight="16540" xr2:uid="{42A23910-A8DC-5441-82C8-28F4DD5938F8}"/>
   </bookViews>
@@ -23,6 +23,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -702,16 +703,17 @@
   <dimension ref="A1:AQ41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="21.1640625" customWidth="1"/>
     <col min="2" max="2" width="13.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:43" s="13" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:43" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -842,7 +844,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -974,7 +976,7 @@
         <v>1143885</v>
       </c>
     </row>
-    <row r="3" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
@@ -1106,7 +1108,7 @@
         <v>922965</v>
       </c>
     </row>
-    <row r="4" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
         <v>79</v>
       </c>
@@ -1278,7 +1280,7 @@
         <v>573616</v>
       </c>
     </row>
-    <row r="5" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A5" s="5" t="s">
         <v>78</v>
       </c>
@@ -1450,7 +1452,7 @@
         <v>15933.777777777777</v>
       </c>
     </row>
-    <row r="6" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
@@ -1582,7 +1584,7 @@
         <v>81937</v>
       </c>
     </row>
-    <row r="7" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
@@ -1714,7 +1716,7 @@
         <v>62189</v>
       </c>
     </row>
-    <row r="8" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>12</v>
       </c>
@@ -1846,7 +1848,7 @@
         <v>61640</v>
       </c>
     </row>
-    <row r="9" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>14</v>
       </c>
@@ -1978,7 +1980,7 @@
         <v>60088</v>
       </c>
     </row>
-    <row r="10" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>16</v>
       </c>
@@ -2110,7 +2112,7 @@
         <v>47466</v>
       </c>
     </row>
-    <row r="11" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>18</v>
       </c>
@@ -2242,7 +2244,7 @@
         <v>44677</v>
       </c>
     </row>
-    <row r="12" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>20</v>
       </c>
@@ -2374,7 +2376,7 @@
         <v>32227</v>
       </c>
     </row>
-    <row r="13" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>22</v>
       </c>
@@ -2506,7 +2508,7 @@
         <v>27476</v>
       </c>
     </row>
-    <row r="14" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
         <v>24</v>
       </c>
@@ -2638,7 +2640,7 @@
         <v>24698</v>
       </c>
     </row>
-    <row r="15" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
         <v>26</v>
       </c>
@@ -2770,7 +2772,7 @@
         <v>17629</v>
       </c>
     </row>
-    <row r="16" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
         <v>28</v>
       </c>
@@ -2902,7 +2904,7 @@
         <v>11308</v>
       </c>
     </row>
-    <row r="17" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
         <v>30</v>
       </c>
@@ -3034,7 +3036,7 @@
         <v>9401</v>
       </c>
     </row>
-    <row r="18" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
         <v>32</v>
       </c>
@@ -3166,7 +3168,7 @@
         <v>8950</v>
       </c>
     </row>
-    <row r="19" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
         <v>34</v>
       </c>
@@ -3298,7 +3300,7 @@
         <v>8377</v>
       </c>
     </row>
-    <row r="20" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
         <v>36</v>
       </c>
@@ -3430,7 +3432,7 @@
         <v>7345</v>
       </c>
     </row>
-    <row r="21" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
         <v>38</v>
       </c>
@@ -3562,7 +3564,7 @@
         <v>6344</v>
       </c>
     </row>
-    <row r="22" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
         <v>40</v>
       </c>
@@ -3694,7 +3696,7 @@
         <v>6768</v>
       </c>
     </row>
-    <row r="23" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
         <v>42</v>
       </c>
@@ -3826,7 +3828,7 @@
         <v>6576</v>
       </c>
     </row>
-    <row r="24" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
         <v>44</v>
       </c>
@@ -3958,7 +3960,7 @@
         <v>6063</v>
       </c>
     </row>
-    <row r="25" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
         <v>46</v>
       </c>
@@ -4090,7 +4092,7 @@
         <v>5332</v>
       </c>
     </row>
-    <row r="26" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
         <v>48</v>
       </c>
@@ -4222,7 +4224,7 @@
         <v>4700</v>
       </c>
     </row>
-    <row r="27" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
         <v>50</v>
       </c>
@@ -4354,7 +4356,7 @@
         <v>4602</v>
       </c>
     </row>
-    <row r="28" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
         <v>52</v>
       </c>
@@ -4486,7 +4488,7 @@
         <v>3959</v>
       </c>
     </row>
-    <row r="29" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
         <v>54</v>
       </c>
@@ -4618,7 +4620,7 @@
         <v>3165</v>
       </c>
     </row>
-    <row r="30" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A30" s="1" t="s">
         <v>56</v>
       </c>
@@ -4750,7 +4752,7 @@
         <v>3619</v>
       </c>
     </row>
-    <row r="31" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="s">
         <v>58</v>
       </c>
@@ -4882,7 +4884,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="32" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
         <v>3</v>
       </c>
@@ -5014,7 +5016,7 @@
         <v>2833</v>
       </c>
     </row>
-    <row r="33" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A33" s="1" t="s">
         <v>61</v>
       </c>
@@ -5146,7 +5148,7 @@
         <v>2759</v>
       </c>
     </row>
-    <row r="34" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A34" s="1" t="s">
         <v>32</v>
       </c>
@@ -5278,7 +5280,7 @@
         <v>2293</v>
       </c>
     </row>
-    <row r="35" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A35" s="1" t="s">
         <v>64</v>
       </c>
@@ -5410,7 +5412,7 @@
         <v>1742</v>
       </c>
     </row>
-    <row r="36" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A36" s="1" t="s">
         <v>66</v>
       </c>
@@ -5542,7 +5544,7 @@
         <v>1412</v>
       </c>
     </row>
-    <row r="37" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A37" s="1" t="s">
         <v>68</v>
       </c>
@@ -5674,7 +5676,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="38" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A38" s="1" t="s">
         <v>70</v>
       </c>
@@ -5806,7 +5808,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="39" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A39" s="1" t="s">
         <v>72</v>
       </c>
@@ -5938,7 +5940,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="40" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A40" s="1" t="s">
         <v>74</v>
       </c>
@@ -6070,7 +6072,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="41" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A41" s="1" t="s">
         <v>76</v>
       </c>
